--- a/finetuning/it_datasets/it_dataset/it_tozeur_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_tozeur_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe de Paris located at W4CH+JCV Cafe de Paris, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-23:59, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+Paris/data=!4m7!3m6!1s0x1257ea847802ee31:0x442d2f94334ba4fd!8m2!3d33.9216155!4d8.1285539!16s%2Fg%2F11c1pl56cv!19sChIJMe4CeITqVxIR_aRLM5QvLUQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 826 778.</t>
+          <t>Café de Paris, located in Tozeur (long: 8.1296387, lat: 33.9214463), offers a cozy ambiance for enjoying a cup of coffee or indulging in other cafe delights.</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you happen to be in tozeur and seek a pleasant experience, you should check out Cafe El aaliya nestled at W4CF+FX2 Cafe El aaliya, P3, Tozeur. This highly-rated spot with a 5.0 rating is ideal for Cafe enthusiasts. To reach here, refer to the GPS coordinates: (33.9214463, 8.1296387). For more information, visit their website at https://www.google.com/maps/place/Caf%C3%A8+El+aaliya/data=!4m7!3m6!1s0x1257eb183ddc78df:0x59bce73f7c4a2e0a!8m2!3d33.9211438!4d8.1248849!16s%2Fg%2F11hz1yvnc2!19sChIJ33jcPRjrVxIRCi5KfD_nvFk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe El aaliya is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is also a popular spot for locals to gather and socialize. Cafe El aaliya is located at W4CF+FX2, Tozeur, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafeteria l'Escale located at W4G8+RR8 Cafeteria l'Escale, Av. du Palestine, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>Cafeteria l'Escale is a cafe located in Tozeur, Tunisia, at the coordinates (33.928839112011, 8.11572396509). It boasts a 5.0 rating from 2 reviews and offers a cozy ambiance to enjoy a variety of cafe beverages and light refreshments.</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out The Wolf located at W489, Rte Touristique. This destination is perfect for Cafe lovers and offers a rating of 5.0. It's open during these hours: 05:30-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>The Wolf is a Cafe with a 5-star rating, located in Tozeur at coordinates (33.9214463, 8.1296387). It is open from 5:30 am to midnight.</t>
         </is>
       </c>
     </row>
@@ -1034,10 +1034,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot to relax, check out mqh~ lnkhyl located at W47F+H75 mqh~ lnkhyl, Unnamed Road.
-This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot.
-To get there, use these GPS coordinates: 33.9214463, 8.1296387. 
-For more details, visit mqh~ lnkhyl's link at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1257eb2016df11dd:0x4f1e098f58d8b560!8m2!3d33.9138759!4d8.1232423!16s%2Fg%2F11g3xg21jt!19sChIJ3RHfFiDrVxIRYLXYWI8JHk8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>mqh lnkhyl is a cafe located in Tozeur, Tunisia. The cafe is located at 33.9214463, 8.1296387. mqh lnkhyl is rated 5.0 and has 1 review. The cafe's owner is mqh~ lnkhyl (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1137,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for an authentic Tunisian dining experience, visit Restaurant Le Soleil located at W49M+4MQ, Av. Abou el Kacem Chebbi. With a 4.2 rating based on 282 reviews, this restaurant specializes in traditional Tunisian cuisine and offers a range of dishes to choose from. It's open 24/7 and can be reached by phone at 22 193 881. For more details, visit their website or use the GPS coordinates (33.9191699, 8.1292337) to navigate.</t>
+          <t>Restaurant Le Soleil is a well-renowned Tunisian restaurant situated in Tozeur (Tunisia), with coordinates (33.9191699, 8.1292337). Operating 24 hours a day, it offers a delightful culinary experience. The restaurant is known for its traditional Tunisian cuisine, specializing in dishes like couscous, chakchouka, and grillades. It has garnered an impressive rating of 4.2 based on 282 reviews and is praised for its delectable dishes, courteous staff, and cozy ambiance.</t>
         </is>
       </c>
     </row>
@@ -1243,9 +1240,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant De La Republique Tozeur located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217038, 8.1353451. For more details, visit their website or call them at 23 821 901.</t>
+          <t>Restaurant De La Republique Tozeur is a Tunisian restaurant in Tozeur, Tunisia. It is located at Rue Hedi Jahallah, 2200, W4CP+C5. The restaurant has a 4.1 rating on Google and is open 24 hours a day. It offers a variety of Tunisian dishes, including couscous, salads, and grilled meats. The restaurant also has a dromedary, which is a type of camel.</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1343,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe Berbere located at W4CQ+88Q, Ouled El Hadef, Tozeur. With a rating of 5.0, it's the perfect destination for cafe lovers. It's open from 8:30 AM to midnight every day. For more details, visit their link or call them at 50 719 277.</t>
+          <t>Cafe Berbere is a 5-star rated cafe located in Ouled El Hadef, Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It offers a pleasant atmosphere with music, shisha, and a variety of drinks, including the popular "the a la menthe," orange juice, and lemonade. The cafe's terrace provides a delightful setting to enjoy refreshments and relax amid the town's ambiance.</t>
         </is>
       </c>
     </row>
@@ -1451,9 +1446,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and seeking a delightful dining experience, consider Scoop Cafe-Resto on Av. Abou el Kacem Chebbi.
-Renowned for its Restaurant culinary offerings, this top-rated destination boasts a range of choices for food lovers. Rated an impressive 4.3, Scoop Cafe-Resto promises a memorable visit.
-Open from 07:00-00:00, it welcomes guests daily. For guidance, utilize GPS coordinates (33.9262616, 8.1315781) or contact them at 27 720 721.</t>
+          <t>Scoop Cafe-Resto is a popular restaurant located in Tozeur, Tunisia. It offers an exquisite dining experience with delectable food and refreshing beverages. The cafe-resto prides itself on its mouthwatering scoops of ice cream, earning it a reputation as a must-visit spot for dessert enthusiasts. Situated at 33.9262616 latitude and 8.1315781 longitude, Scoop Cafe-Resto is easily accessible and warmly welcomes patrons seeking a delightful culinary adventure in the heart of Tozeur.</t>
         </is>
       </c>
     </row>
@@ -1548,9 +1541,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a place to eat, check out Restaurant Chak Wak located at W46W+JP4 Restaurant Chak Wak, Rte des Touaregs. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at nan or call them at 55 139 738.</t>
+          <t>Restaurant Chak Wak in Tozeur offers a delightful dining experience with an average rating of 4.2. Its convenient location is easily accessible, making it a popular spot for locals and visitors alike. The restaurant's welcoming ambiance, accompanied by live music, creates a relaxing and enjoyable atmosphere. The menu features a variety of delicious dishes at reasonable prices, catering to diverse tastes and preferences. With 73 positive reviews and a focus on quality service, Restaurant Chak Wak stands as a must-visit destination in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1644,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Le Minaret Ferkous located at Rue Mohamed Ali El Ajimi, Tozeur. This top-rated destination is perfect for restaurant lovers and also offers cafe. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.920876936631, 8.134389243277. For more details, visit their website at https://www.google.com/maps/place/Le+Minaret+Ferkous/data=!4m7!3m6!1s0x1257eb9c4e0b1c51:0x694bb8b4b9ec92ea!8m2!3d33.9214663!4d8.1351477!16s%2Fg%2F11kqzvg8p8!19sChIJURwLTpzrVxIR6pLsubS4S2k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 716 333.</t>
+          <t>Located in Le Minaret Ferkous, Tozeur, Rue Mohamed Ali El Ajimi (33.920876936631, 8.134389243277), Le Minaret Ferkous is a combination of restaurant and cafe that is highly acclaimed by its patrons with an average rating of 4.8 and a solid feedback of 69 reviews. The establishment is open around the clock, welcoming you for a non-stop gourmet experience. Le Minaret Ferkous is known for its exceptional ambiance and signature cuisine, making it a popular destination among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -1756,9 +1747,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, check out Resto Cafe El Berka. 
-This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Resto+Caf%C3%A9+El+Berka/data=!4m7!3m6!1s0x1257c15765a2fc13:0x5a057b5b991c1aee!8m2!3d33.916396!4d8.1389735!16s%2Fg%2F11vjggt1rf!19sChIJE_yiZVfBVxIR7hocmVt7BVo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 297 297.</t>
+          <t>Resto Cafe El Berka is located in Tozeur, Tunisia (33.9214463, 8.1296387). It offers a wide range of dining options and has a 4.9 rating based on 30 reviews. The Resto Cafe El Berka is open from 11:00 am to 10:00 pm every day of the week and can be contacted at 28 297 297.</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1846,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out L'atelier d'Amel Line at Av. Habib Bourguiba. This cafe is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, visit their website at nan or call them at 25 840 707.</t>
+          <t>L'atelier d'Amel Line is a cafe located in Tozeur, Tunisia. It offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. The cafe is located in the heart of the city, and it offers a great view of the surrounding area. The cafe also has a gift shop, where you can buy souvenirs and other items.</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1945,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Salon De The Soltan located at W4CJ+H87 Salon De The Soltan, Ave Farhat Hached, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.92100958622, 8.117383840332. For more details, visit their website at https://www.google.com/maps/place/Salon+De+Th%C3%A9+Soltan/data=!4m7!3m6!1s0x1257ea83b1ff03e1:0x61ca1a15d65210b1!8m2!3d33.9214237!4d8.1307944!16s%2Fg%2F11c57y3vf9!19sChIJ4QP_sYPqVxIRsRBS1hUaymE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 421 425.</t>
+          <t>Nestled amidst the bustling streets of Avenue Farhat Hached in the heart of Tozeur, Salon De The Soltan invites guests to delve into a charming cafe experience. With a welcoming ambiance and conveniently located at (33.92100958622, 8.117383840332), it offers a delightful sanctuary for coffee enthusiasts, locals, and travelers alike.</t>
         </is>
       </c>
     </row>
@@ -2055,9 +2044,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Le coin located at W49P+GG6 Cafe Le coin, Tozeur.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Le+coin/data=!4m7!3m6!1s0x1257c028611aaa69:0x20e4c02b43791d9b!8m2!3d33.9187837!4d8.136264!16s%2Fg%2F11f40qqx1z!19sChIJaaoaYSjAVxIRmx15QyvA5CA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at</t>
+          <t>**Cafe Le coin** is a highly rated cafe located in Tozeur, Tunisia, at (33.9214463, 8.1296387). It offers a cozy ambiance with a 4.8 rating based on 14 reviews. Its main category is Cafe, with an open 24/7 schedule.</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2151,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Bonzai Lounge Coffee located at W4C9+CV5, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.7, it's a must-visit spot and it's open 24 hours a day, every day. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/Coffee-Bonzai-236924553917206/ or call them at 52 230 007.</t>
+          <t>Nestled in the heart of Tozeur, Bonzai Lounge Coffee invites you to indulge in a vibrant coffee experience. Open 24 hours a day, this charming cafe offers a haven for coffee enthusiasts seeking exceptional brews. Located at the convenient coordinates (33.9214463, 8.1296387), Bonzai Lounge Coffee welcomes guests with a warm ambiance and impeccable service. Immerse yourself in the local culture and savor the flavors of Tozeur in this cozy and highly-rated cafe.</t>
         </is>
       </c>
     </row>
@@ -2267,7 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Jet 7 Coffee located at RN3, Tozeur. This must-visit spot offers a range of categories to choose from and is perfect for Cafe lovers. With a rating of 5.0, it's open 24 hours a day. To get there, use these GPS coordinates: 33.922278911821, 8.133354898631. For more details, visit their website or call them at 25 261 830.</t>
+          <t>Jet 7 Coffee is a cafe located at (33.922278911821, 8.133354898631) in Tozeur. It is open 24 hours and offers a variety of coffee, tea, and other beverages. The cafe also offers a selection of pastries and sandwiches.</t>
         </is>
       </c>
     </row>
@@ -2370,9 +2357,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot to grab a bite, head to Cafe de Paris, conveniently located at W4CH+JCV Cafe de Paris. 
-As a top-rated destination for cafe enthusiasts, it offers a warm and inviting atmosphere with a rating of 4.1. The cafe is open daily from 6 AM to 11:59 PM. For directions, use the GPS coordinates 33.9214463, 8.1296387. 
-To find out more, feel free to call them at 56 826 778.</t>
+          <t>Cafe de Paris is located in Tozeur, Tunisia, and has a rating of 4.1. The cafe is open from 6 AM to 11:59 PM every day and offers a variety of services, including food, drinks, and Wi-Fi. The cafe is also located near several attractions, including the Medina of Tozeur and the Grand Mosque of Tozeur.</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2464,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe El Majles located at W4F6+F2G Cafe El Majles, Avenue 14 Janvier 2011, Tozeur. This top-rated destination is perfect for Salon de the traditionnel lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 33.914743393196, 8.116001096002. For more details, visit their website at https://www.facebook.com/elmajlestozeur or call them at 21 388 668.</t>
+          <t>Nestled amidst the bustling streets of Tozeur, Cafe El Majles is a renowned salon de the traditionnel that offers a perfect blend of tradition and modernity. Situated at the heart of the city, its coordinates are (33.914743393196, 8.116001096002), making it easily accessible. With a highly acclaimed rating of 5.0 based on 9 customer reviews, this beloved cafe stands out as a must-visit destination.</t>
         </is>
       </c>
     </row>
@@ -2578,9 +2563,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Palmera located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487.</t>
+          <t>Cafe Palmera is a highly-rated cafe located in Tozeur, Tunisia. It offers a wide variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur, and is open from 6:00 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2662,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cozy spot, check out Cafe Zouba located at W4CP+F8J Cafe Zouba, Tozeur. This top-rated cafe serves coffee, tea, and other beverages in a relaxed and friendly atmosphere. With a rating of 4.0, it's a must-visit spot for cafe lovers. It's open during these hours: 05:00-21:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Café Zouba is a cafe located in Tozeur, Tunisia. It is rated 4.0 out of 5 stars with 5 reviews. The cafe offers a variety of coffee and tea drinks, as well as pastries and other snacks. It is located at W4CP+F8J Cafe Zouba, Tozeur.</t>
         </is>
       </c>
     </row>
@@ -2774,9 +2757,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe de L'independance located at Av. Habib Bourguiba, Tozeur. 
-This destination is perfect for cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.92036, 8.1362994. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+de+L%E2%80%99ind%C3%A9pendance/data=!4m7!3m6!1s0x1257c1f4354d0707:0x2081c2c212fd7b89!8m2!3d33.9204125!4d8.1362656!16s%2Fg%2F11g0jdssph!19sChIJBwdNNfTBVxIRiXv9EsLCgSA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe de L'independance is a cafe located in Tozeur, Tunisia. It is situated at the coordinates (33.92036, 8.1362994). The cafe has a 4.4-star rating based on 5 reviews.</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2864,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe La Rosa located at W48M+R37 Cafe La Rosa, Av. Abou el Kacem Chebbi, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://m.facebook.com/Cafe-La-Rosa-tozeur-660194007516712/?ref=page_internal&amp;mt_nav=0 or call them at 24 804 483.</t>
+          <t>Cafe La Rosa is a top-rated cafe located in Tozeur, Tunisia. Open 24 hours a day, it offers a convenient and lively atmosphere for locals and tourists alike. The cafe features a cozy interior and a welcoming staff, making it a great place to relax and unwind. Its prime location on Av. Abou el Kacem Chebbi makes it easily accessible by foot or car. With its 4.5-star rating and positive reviews, Cafe La Rosa is a must-visit destination for coffee lovers and those seeking a delightful dining experience in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2967,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Mallorca located at Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487. For more details, visit their website or call them at 55 458 257.</t>
+          <t>Discover "Cafe Mallorca", a popular cafe located on Avenue 4 Aout 1880 in Tozeur, Tunisia, at coordinates (33.91732548103, 8.126746090487). Boasting a 5.0 rating from 4 reviews, the cafe is open 24 hours a day, 7 days a week. While the website and description are not provided, you can find more details and user-generated content on the provided link.</t>
         </is>
       </c>
     </row>
@@ -3085,9 +3066,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe Terrasse located at W47H+P42 Cafe Terrasse, Av. Abou el Kacem Chebbi, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-12:00, but closed on . To get there, use these GPS coordinates: 33.91717636496, 8.133063786585.</t>
+          <t>Cafe Terrasse is a highly-rated cafe located in Tozeur, Tunisia, offering a cozy ambiance and a range of coffee and tea drinks. It's situated at coordinates (33.91717636496, 8.133063786585) and is open daily from 6 AM to 12 PM.</t>
         </is>
       </c>
     </row>
@@ -3186,9 +3165,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Baoueb Lemdina located at W4GQ+J67 Cafe Baoueb Lemdina, Avenue Avicenne, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 04:00-22:00. To get there, use these GPS coordinates: 33.926052462407, 8.137673503962. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Baoueb+Lemdina/data=!4m7!3m6!1s0x1257c02b6d601395:0xe0681f7d2878a61b!8m2!3d33.9265375!4d8.1380469!16s%2Fg%2F11g5_50_8b!19sChIJlRNgbSvAVxIRG6Z4KH0faOA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Baoueb Lemdina is a cafe located in the city of Tozeur, Tunisia. It offers a variety of drinks and snacks, and is located on Avenue Avicenne. The cafe has a rating of 4.0 out of 5 on Google, and is open from 4:00 am to 10:00 pm.</t>
         </is>
       </c>
     </row>
@@ -3279,9 +3256,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Cafe El aaliya, located at W4CF+FX2 Cafe El aaliya, P3, Tozeur. 
-This top-rated destination is perfect for cafe lovers and has a rating of 5.0. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A8+El+aaliya/data=!4m7!3m6!1s0x1257eb183ddc78df:0x59bce73f7c4a2e0a!8m2!3d33.9211438!4d8.1248849!16s%2Fg%2F11hz1yvnc2!19sChIJ33jcPRjrVxIRCi5KfD_nvFk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [Phone Number].</t>
+          <t>Cafe El aaliya is a 5-star cafe located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). Despite having no website, reviews, or featured image, it offers a cozy and inviting atmosphere for customers.</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3347,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in tozeur, Espace Echbala is a must-visit spot for Cafe lovers. Located at W467+5R5 Espace Echbala, Tozeur, this top-rated destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot.</t>
+          <t>Espace Echbala is a cafe in Tozeur, Tunisia, located at coordinates (33.9214463, 8.1296387). It has a rating of 5.0 based on 3 reviews and offers a variety of services.</t>
         </is>
       </c>
     </row>
@@ -3471,9 +3446,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out The Wolf located at W489+7PQ The Wolf, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 05:30-00:00, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/The+Wolf/data=!4m7!3m6!1s0x1257eb6e090856b5:0x34b1f43f04d9e990!8m2!3d33.9157071!4d8.1193639!16s%2Fg%2F11sycbwclq!19sChIJtVYICW7rVxIRkOnZBD_0sTQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Wolf is a cafe located in Tozeur, Tunisia, offering a cozy ambiance and a variety of coffee and tea beverages. Customers can unwind and enjoy their drinks while taking in the surroundings. The cafe operates daily from 5:30 AM to midnight, providing ample time for locals and visitors alike to visit and indulge in its offerings.</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3541,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe My Story conveniently located at W4CJ+824 Cafe My Story, Av. du 9 Avril, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5 from 2 reviews, it's a must-visit spot. It's featured image is https://lh5.googleusercontent.com/p/AF1QipMdObe_M7GZQr4EHYCm4hHEa7JtKvJL07hJmZ9t=w408-h272-k-no. You can find more details on their website or call them at . To get there, use these GPS coordinates: 33.919144152937, 8.127331311477.</t>
+          <t>Cafe My Story is a popular cafe located in Tozeur. The cafe offers a variety of drinks and snacks, and is a great place to relax and enjoy the atmosphere. Cafe My Story is located at W4CJ+824 Cafe My Story, Av. du 9 Avril, Tozeur, and is open from Monday to Sunday, from 8am to 10pm.</t>
         </is>
       </c>
     </row>
@@ -3667,9 +3640,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Cafe Garibaldi located at W47F+FPH. 
-This top-rated destination is perfect for cafe lovers and it's open during these hours: 06:00-00:00. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Discover Cafe Garibaldi, a captivating cafe nestled in the heart of Tozeur (33.9214463, 8.1296387). Immerse yourself in the vibrant atmosphere as you savor the aromatic brews and delectable treats. Operating daily from 6 AM to midnight, Cafe Garibaldi welcomes you with open arms. Whether you're seeking a cozy spot to unwind or a convenient meeting place, this cafe offers the perfect ambiance.</t>
         </is>
       </c>
     </row>
@@ -3764,9 +3735,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafeteria l'Escale located at W4G8+RR8 Cafeteria l'Escale, Av. du Palestine, Tozeur. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.928839112011, 8.11572396509. For more details, visit their link at https://www.google.com/maps/place/Cafeteria+l%27Escale/data=!4m7!3m6!1s0x1257eb7d4ad7bfb9:0x75aa32cae64449b4!8m2!3d33.9265118!4d8.1167148!16s%2Fg%2F11t4gxvf5c!19sChIJub_XSn3rVxIRtElE5soyqnU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafeteria l'Escale is a cafe located in Tozeur, Tunisia. It is a highly rated cafe with a 5.0 rating based on 2 reviews. The cafe is conveniently located near the city's center, at the coordinates (33.928839112011, 8.11572396509).</t>
         </is>
       </c>
     </row>
@@ -3861,9 +3830,8 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out mqh~ lnkhyl located at W47F+H75 mqh~ lnkhyl, Unnamed Road. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%AE%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x1257eb2016df11dd:0x4f1e098f58d8b560!8m2!3d33.9138759!4d8.1232423!16s%2Fg%2F11g3xg21jt!19sChIJ3RHfFiDrVxIRYLXYWI8JHk8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Discover the Unnamed Cafe in Tozeur**
+Nestled amidst the enchanting city of Tozeur, the Unnamed Cafe invites you to indulge in a serene and cozy ambiance. Situated at coordinates (33.9214463, 8.1296387), it offers a delightful menu and a welcoming atmosphere that will make your visit unforgettable.</t>
         </is>
       </c>
     </row>
@@ -3954,7 +3922,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafe Rimel located at W4MM+FW4 Avenue d'Iraq, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Rimel/data=!4m7!3m6!1s0x1257c128eba2ea83:0xa55ba238513dd6e!8m2!3d33.9336353!4d8.1348201!16s%2Fg%2F11rwj664sw!19sChIJg-qi6yjBVxIRbt0ThSO6VQo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Rimel is a cafe located in Tozeur, Tunisia. It has a 5.0 rating on Google, with one review. The cafe is located at coordinates (33.930657993656, 8.128086372939).</t>
         </is>
       </c>
     </row>
@@ -4049,9 +4017,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated cafe, check out Cafe Sport located at W4CG+J4H. 
-This 5.0-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at nan.</t>
+          <t>Cafe Sport is a cafe located in Tozeur, Tunisia. It is a great place to relax and enjoy a cup of coffee or tea. The cafe is also known for its friendly staff and its delicious pastries. Cafe Sport is located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4112,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great Cafe, check out Cafetiria"suite coffee" located at W4CJ+WWH Cafetiria"suite coffee". This top-rated destination is a must-visit spot for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Cafetiria%22suite+coffee%22/data=!4m7!3m6!1s0x1257eb0030cfb235:0xced0d00da2e44a5e!8m2!3d33.922452!4d8.1323038!16s%2Fg%2F11y2vsjws9!19sChIJNbLPMADrVxIRXkrkog3Q0M4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Cafetiria "suite coffee"** is a cozy cafe located in Tozeur. It offers a variety of coffee drinks, as well as snacks and pastries. The cafe is located near the town center, making it easy to get to.</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4219,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This highly-rated destination is perfect for hotel lovers and offers a range of hotel categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Located at the heart of Tozeur (coordinates - 33.9214463, 8.1296387), Residence l'Oued is a Moroccan-style hotel with a laid-back dining space, an outdoor pool, and inviting rooms. It boasts 162 reviews and a 4.1-star rating, making it a popular choice for travelers seeking comfort and convenience.</t>
         </is>
       </c>
     </row>
@@ -4360,9 +4326,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Located in Tozeur, Hotel Ras El Ain Tozeur is a 4-star hotel that offers a range of amenities including a restaurant, spa, fitness center, and both indoor and outdoor pools. The hotel has received positive reviews, with guests praising its comfortable rooms, attentive staff, and convenient location.</t>
         </is>
       </c>
     </row>
@@ -4469,8 +4433,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Residence l'Oued located at W47H+942. 
-This highly-rated hotel is perfect for those seeking relaxation and comfort. It offers a range of amenities, including a swimming pool, restaurant, and comfortable rooms. With a rating of 4.1 out of 5, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia. It features a relaxed restaurant, an outdoor pool, and cozy rooms. The hotel is conveniently located at W47H+942 and is highly rated with 4.1 stars based on 162 reviews. Guests praise its swimming pool, reasonable prices, well-maintained rooms, and cleanliness.</t>
         </is>
       </c>
     </row>
@@ -4577,10 +4540,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Maison D'hotes Dar Saida Beya located at Rue Ahmed El Ayech, Tozeur 2200. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.918871602006, 8.135609625902. 
-For more details, visit their website at http://www.darsaidabeya.com/ or call them at 25 566 066.</t>
+          <t>Maison D'hotes Dar Saida Beya is a high-end hotel located in Tozeur, Tunisia. It offers elegant rooms and suites, a hammam, a patio, and free breakfast. The hotel is rated 4.7 out of 5 stars on Google and has received positive reviews for its comfort, charm, and amenities. Maison D'hotes Dar Saida Beya is a great place to stay for those looking for a relaxing and luxurious experience in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4639,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a charming place to stay, consider Villa Taouzert, located at Villa Taouzert, Ancienne Oasis de. This top-rated Maison d'hôtes is perfect for those who appreciate traditional Moroccan hospitality and offers a cozy ambiance. With a rating of 5.0, it's a highly recommended spot. It's open daily during specific hours, so call 58 085 059 to confirm. For more information, visit the website at https://www.google.com/maps/place/Villa+Taouzert/data=!4m10!3m9!1s0x1257ebccb98f8165:0x470013828ef80bc8!5m2!4m1!1i2!8m2!3d33.9172904!4d8.1476272!16s%2Fg%2F11l1mq987z!19sChIJZYGPuczrVxIRyAv4joITAEc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Villa Taouzert is a 5-star guesthouse in Tozeur, Tunisia. It is located at coordinates (33.9191699, 8.1292337) and offers a variety of amenities, including a restaurant, bar, swimming pool, and garden. The guesthouse is also close to a number of attractions, including the Medina of Tozeur and the Sahara Desert.</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4746,10 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a relaxing stay, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination is perfect for Hotel lovers and offers a range of amenities to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Hotel Ras El Ain Tozeur is a 5-star hotel in Tozeur, Tunisia. It offers a range of amenities, including a restaurant, spa, fitness center, and indoor and outdoor swimming pools. The hotel is located in the city center, making it a convenient base for exploring Tozeur and the surrounding area.
+The hotel's restaurant serves a variety of international and local dishes. The spa offers a range of treatments, including massages, facials, and body wraps. The fitness center is equipped with a variety of cardio and weight-training equipment. The indoor and outdoor swimming pools are perfect for relaxing and cooling off.
+The hotel's rooms are spacious and well-appointed. They feature air conditioning, satellite TV, and minibars. The bathrooms are equipped with showers or bathtubs, and hairdryers.
+Hotel Ras El Ain Tozeur is a great choice for travelers looking for a comfortable and convenient base for exploring Tozeur.</t>
         </is>
       </c>
     </row>
@@ -4893,9 +4856,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Hotel Ras El Ain Tozeur is a luxury hotel located in the desert of Tozeur. The hotel offers a relaxing atmosphere with its stylish restaurant, spa, fitness room, and indoor and outdoor swimming pools. The hotel is conveniently located near the city center and offers easy access to the local attractions.</t>
         </is>
       </c>
     </row>
@@ -4998,9 +4959,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great place to stay, check out Anantara Sahara Tozeur Resort &amp; Villas located at Anantara Sahara Tozeur Resort &amp; Villas, Mrah lahwar 2200, Tozeur. 
-This top-rated destination is perfect for Complexe hotelier lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.900023, 54.33611. For more details, visit their website at https://www.anantara.com/sahara-tozeur%3Futm_source%3DGoogleMyBusiness%26utm_medium%3DGMB%26utm_term%3DTozeur%26utm_content%3DHome%26utm_campaign%3DGoogle_GMB or call them at 70 100 800.</t>
+          <t>Anantara Sahara Tozeur Resort &amp; Villas offers a luxurious desert getaway amidst the surreal landscapes of southern Tunisia. This 5-star resort boasts elegant villas and rooms, featuring stunning views of the surrounding dunes and oasis. Immerse yourself in the rich heritage and vibrant culture of Tozeur, while enjoying exceptional cuisine, rejuvenating spa treatments, and thrilling desert excursions.</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5066,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This establishment is perfect for those seeking a hotel experience and offers a range of available services. With a rating of 4.1 out of 5 based on 162 reviews, it's a must-visit spot for travelers. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued, a Moroccan-styled hotel in Tozeur, offers a relaxing ambiance with a restaurant, an outdoor pool, and cozy rooms. Located at 33.9214463, 8.1296387, it's a popular choice for travelers seeking a comfortable stay in the heart of the city.</t>
         </is>
       </c>
     </row>
@@ -5214,7 +5173,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated hotel, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This 4.1-rated hotel is perfect for hotel lovers. With 162 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Résidence l'Oued est un hôtel de style marocain avec une ambiance décontractée. Il propose un restaurant, une piscine extérieure et des chambres confortables. Situé à Tozeur, l'hôtel bénéficie d'un emplacement idéal pour explorer la région et profiter de ses paysages uniques.</t>
         </is>
       </c>
     </row>
@@ -5309,9 +5268,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great place to stay, check out Hotel Sarra located at W477+CF4 Hotel Sarra, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Hotel Sarra is a well-rated hotel located in Tozeur, Tunisia. It offers a comfortable stay with a rating of 4.0 out of 5. The hotel is conveniently located on the Tourist Route (W477+CF4) and offers easy access to the city's attractions. The hotel's featured image showcases its modern architecture and inviting ambiance. Hotel Sarra is a great choice for travelers seeking a pleasant and convenient stay in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5375,8 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a luxurious hotel experience, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination with a rating of 4.0 is perfect for hotel lovers and offers a range of categories to choose from. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>HÔTEL RAS EL AIN TOZEUR is a luxurious hotel in Tozeur, Tunisia, situated at coordinates (33.9137264, 8.1175387). 
+This upscale hotel boasts an array of amenities to cater to its guests' needs, including a casual restaurant, a rejuvenating spa, a state-of-the-art fitness center, and both indoor and outdoor swimming pools for relaxation and recreation.</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5483,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a great hotel, check out Hotel Ras El Ain Tozeur located at Hotel Ras El Ain Tozeur, Bp 141, Tozeur 2200. This top-rated destination is perfect for Hotel lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9137264, 8.1175387. For more details, visit their website at https://www.goldenyasmin.com/ or call them at 76 452 003.</t>
+          <t>Nestled in Tozeur, Hotel Ras El Ain Tozeur is a luxurious oasis, offering an array of amenities to enhance your stay. With 2601 rooms, a serene restaurant, a pampering spa, a state-of-the-art fitness center, and inviting indoor and outdoor pools, it promises an unforgettable retreat. Its prime location, GPS coordinates (33.9137264, 8.1175387), places you in the heart of the city, ready to explore its vibrant culture and breathtaking desert landscapes.</t>
         </is>
       </c>
     </row>
@@ -5628,9 +5586,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in tozeur, check out Anantara Sahara Tozeur Resort &amp; Villas located at Mrah lahwar 2200, Tozeur.
- This top-rated destination is perfect for Complexe hotelier lovers.
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.900023, 54.33611. For more details, visit their website at https://www.anantara.com/sahara-tozeur%3Futm_source%3DGoogleMyBusiness%26utm_medium%3DGMB%26utm_term%3DTozeur%26utm_content%3DHome%26utm_campaign%3DGoogle_GMB or call them at 70 100 800.</t>
+          <t>Anantara Sahara Tozeur Resort &amp; Villas is a luxury hotel resort in Tozeur, Tunisia. It offers a variety of amenities and activities, including a swimming pool, a spa, a fitness center, and a restaurant. The hotel is located in a quiet area of Tozeur, and it offers stunning views of the surrounding desert.</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5693,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a comfortable stay, consider Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This top-rated hotel is perfect for those seeking a relaxing getaway and offers a range of amenities to choose from. With a rating of 4.1, it's a must-visit spot for travelers. It's open 24/7. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>Residence l'Oued is a Moroccan-style hotel located in Tozeur, Tunisia (33.9214463, 8.1296387). It features a restaurant with a relaxed atmosphere, an outdoor swimming pool, and comfortable rooms. The hotel has received 162 reviews and has a rating of 4.1.</t>
         </is>
       </c>
     </row>
@@ -5840,9 +5796,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Diar Abou Habibi located at W46W+478 Diar Abou Habibi, Rte des Touaregs, Tozeur. 
-This top-rated destination is perfect for Maison d'hotes lovers and offers a range of Maison d'hotes to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.diarhabibi.com/ or call them at 76 460 270.</t>
+          <t>Diar Abou Habibi is a 4.5-stars rated guesthouse located in Tozeur, Tunisia. It features 126 reviews and is described as a magical place with charming cabanas and chalets amidst a beautiful oasis and palm grove. Guests can enjoy the outdoor swimming pool, savor delicious dinners, and explore the surrounding natural wonders at this peaceful retreat, offering the perfect escape in the heart of the desert.</t>
         </is>
       </c>
     </row>
@@ -5949,7 +5903,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a charming Maison d'hotes, check out Dar Tozeur located at El Hawadef 2200. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from, including Hotel bien-etre, Restaurant, Institut de massages and Spa. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website at http://www.dartozeur.com/ or call them at 98 318 252.</t>
+          <t>Dar Tozeur is an elegant guesthouse located in the heart of Tozeur, Tunisia. It offers comfortable and stylish rooms, a charming garden, a swimming pool and a chic restaurant serving delicious local and international cuisine. The guesthouse also provides a variety of amenities, including a spa, massage parlour, and wellness centre.</t>
         </is>
       </c>
     </row>
@@ -6056,7 +6010,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in tozeur, Maison D'hotes Dar Saida Beya is a top-rated destination for Maison d'hotes lovers, located at W49P+HFM Rue Ahmed El Ayech, Tozeur 2200. It offers a range of categories to choose from, including Maison d'hotes. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at http://www.darsaidabeya.com/ or call them at 25 566 066.</t>
+          <t>**Maison D'hotes Dar Saida Beya** is a high-end hotel in Tozeur, Tunisia, located at (33.918871602006, 8.135609625902). It offers elegant rooms, suites, a hammam and a patio, and provides free breakfast. With a rating of 4.7 stars, this establishment is a popular choice for tourists seeking comfort and relaxation.</t>
         </is>
       </c>
     </row>
@@ -6159,10 +6113,8 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Nestled amidst the captivating city of Tozeur, Dar Yomma stands as a haven for those seeking tranquility and authentic hospitality. This charming maison d'hôtes has earned a stellar reputation among travelers.
-Within its idyllic walls, you'll find a sanctuary designed for relaxation. The guest rooms are thoughtfully appointed, offering a serene haven to unwind in.
-With a rating of an impressive 4.9, Dar Yomma is a must-visit destination in Tozeur. Immerse yourself in the ambiance of this enchanting haven and indulge in the warmth of exceptional service.
-To plan your visit, reach out to them directly at 51 024 509 or visit their website at https://daryommatozeur.wixsite.com/maison. Their friendly staff will be delighted to assist you in creating an unforgettable experience at Dar Yomma.</t>
+          <t>Dar Yomma is a charming guesthouse in the heart of Tozeur. It offers comfortable rooms, a delightful swimming pool, and a welcoming atmosphere that will make you feel right at home. Located just steps away from the city's main attractions, Dar Yomma is the perfect base for exploring all that Tozeur has to offer.
+Coordinates: (33.9214463, 8.1296387)</t>
         </is>
       </c>
     </row>
@@ -6265,9 +6217,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and searching for a unique experience, head to L'ilot Palmiers, nestled on W45W+78 L'ilot Palmiers, Rte des Touaregs. 
-As a top-rated Camping avec cabanes destination with a remarkable 4.6 rating, this gem offers a range of unforgettable experiences. 
-For more details, visit their website at https://www.lilotpalmier.com/ or call 56 307 308.</t>
+          <t>L'ilot Palmiers is a camping site located in Tozeur, Tunisia, with a 4.6 rating based on 39 reviews. It offers a unique camping experience in tents set amidst a beautiful palm grove. The site is equipped with toilets, showers, and other amenities to ensure a comfortable stay. L'ilot Palmiers is a popular destination for travelers seeking an authentic and immersive desert experience.</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6316,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated Villa experience, check out Dar Ezzahra located at W4MJ+GR Dar Ezzahra, Tozeur. With a rating of 4.3, this must-visit spot is perfect for Villa lovers. Call them at 25 508 203 for more details.</t>
+          <t>Dar Ezzahra is a guest house in the city of Tozeur, Tunisia. The guest house offers its visitors 7 rooms with free WiFi and a garden. The guest house is located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6415,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in tozeur, check out Villa Taouzert located at Villa Taouzert, Ancienne Oasis de, Tozeur 2200. This top-rated destination is perfect for Maison d'hotes lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website or call them at 58 085 059.</t>
+          <t>Villa Taouzert is a charming guest house located in the heart of Tozeur, Tunisia. It offers 3 reviews from guests who gave it a 5.0 rating. The phone number for Villa Taouzert is 58 085 059, and the address is Villa Taouzert, Ancienne Oasis de, Tozeur 2200. The guest house is situated at coordinates (33.9191699, 8.1292337).</t>
         </is>
       </c>
     </row>
@@ -6560,8 +6510,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a restful stay, discover Diar Aroma Lounge situated at W486+HHC Diar Aroma Lounge, Route touristique, Tozeur 2200. 
-This top-rated residence hoteliere has a rating of 5.0 and is a haven for those seeking a peaceful retreat. Contact them at 96 514 748 for inquiries.</t>
+          <t>Diar Aroma Lounge is a residence hotel located in Tozeur, Tunisia. With a rating of 5.0 based on 1 review, the hotel offers a pleasant stay in the city of Tozeur. The establishment is located at the coordinates (33.9191699, 8.1292337).</t>
         </is>
       </c>
     </row>
@@ -6656,8 +6605,8 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated hotel, check out Hotel Sarra located at W477+CF4 Hotel Sarra, Rte Touristique. This 4.0-rated destination is perfect for Hotel lovers. To get there, use these GPS coordinates: 33.9214463, 8.1296387. 
-For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+Sarra/data=!4m10!3m9!1s0x1257eb0031587279:0x941c7a47237b13c8!5m2!4m1!1i2!8m2!3d33.9135125!4d8.1137031!16s%2Fg%2F11vpv2w2wh!19sChIJeXJYMQDrVxIRyBN7I0d6HJQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Hôtel Sarra**
+Hôtel Sarra is a popular hotel located in Tozeur, Tunisia. It is conveniently situated on Rte Touristique, making it easily accessible for guests. The hotel offers a range of amenities to ensure a comfortable stay, including clean and well-appointed rooms, a friendly staff, and a relaxing atmosphere. With an average rating of 4.0 stars, Hôtel Sarra is a highly-rated choice for travelers seeking a comfortable and convenient stay in Tozeur.</t>
         </is>
       </c>
     </row>
@@ -6764,7 +6713,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a place to stay, check out Residence l'Oued located at W47H+942 Residence l'Oued, Tozeur. This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.hotel-residence-loued-tozeur.vivehotels.com/ or call them at 76 463 036.</t>
+          <t>The Residence l'Oued is located at (33.9213220, 8.1296050) in Tozeur. This 4-star hotel offers a Moroccan-style ambiance with a laid-back restaurant, an outdoor pool, and cozy rooms. With 162 reviews, a rating of 4.1, and a featured image showcasing its enticing exterior, this hotel is sure to provide a memorable stay.</t>
         </is>
       </c>
     </row>
@@ -6863,9 +6812,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef. 
-This top-rated destination is perfect for Site historique and Attraction touristique lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of the Tunisian Sahara Desert, Medina de Tozeur is a UNESCO World Heritage Site that transports visitors to a bygone era. Step through the ancient gates and wander along narrow alleys lined with traditional brick houses, their intricate carvings and vibrant colors a testament to the region's rich architectural heritage. Discover the vibrant culture of the desert city as you bargain for local handicrafts, savor the sweet taste of dates, and immerse yourself in the unique charm of this historical gem.</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6911,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for fresh and delicious seafood, then Maison Des Poissons Tozeur is a great choice. This top-rated destination is located at W4FP+CPQ Maison Des Poissons Tozeur, P3, Tozeur. With a rating of 5.0, it's a must-visit spot for seafood lovers. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Maison Des Poissons Tozeur is a Seafood Market located in Tozeur, Tunisia. It has received 3 reviews and has a rating of 5.0. The market can be found at the Coordinates (33.9214463, 8.1296387).</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7010,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a historical site to visit, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. This top-rated destination is perfect for history buffs and offers a range of attractions to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Medina de Tozeur is a historical site and tourist attraction located in Tozeur, Tunisia. It is known for its well-preserved architecture, which features brick houses, narrow streets, and elaborate gates. The Medina is also home to a number of artisans and traditional shops, as well as a lively market. With over 200 reviews and a 4.5-star rating, the Medina de Tozeur is a popular destination for tourists interested in exploring the region's rich history and culture.</t>
         </is>
       </c>
     </row>
@@ -7162,9 +7109,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique, Attraction touristique to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of the Tunisian desert, Medina de Tozeur is a historical site that exudes charm and authenticity. Enter the labyrinthine streets lined with traditional brick houses, adorned with intricate doors and arches. Explore the vibrant marketplaces where artisans showcase their skills and local dates are sold. Medina de Tozeur offers a unique blend of Saharan architecture and cultural heritage, with its breathtaking mosques and panoramic views making it a must-see destination.</t>
         </is>
       </c>
     </row>
@@ -7267,9 +7212,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a fun and educational day out, head to PARC CHAK WAK at W46W+JJ5 PARC CHAK WAK.
-This top-rated destination is perfect for museum lovers and offers a range of categories to choose from, including museums, parks, and tourist attractions.
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.9111365, 8.1453131. For more details, visit their website at https://www.google.com/maps/place/PARC+CHAK+WAK/data=!4m7!3m6!1s0x1257c03b7a13d2c1:0x7a5a4ac8a0020901!8m2!3d33.9115125!4d8.1466094!16s%2Fg%2F11f3w6llmw!19sChIJwdITejvAVxIRAQkCoMhKWno?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 460 400.</t>
+          <t>PARC CHAK WAK is a fascinating museum located in Tozeur, Tunisia. Situated at coordinates (33.9111365, 8.1453131), it offers a captivating blend of history, science, and creativity. Visitors can immerse themselves in exhibits showcasing the evolution of humanity, the origins of life, and the mysteries of dinosaur existence. The museum also features a beautiful palmeraie and an oasis, providing visitors with a serene and picturesque escape. With its focus on learning, discovery, and entertainment, PARC CHAK WAK is a must-visit destination for travelers seeking a unique and memorable experience.</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7323,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musée lovers and offers a range of Musée to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on undefined. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musee Dar Cherait, a museum set in Tozeur, Tunisia, is housed within a restored mansion. It showcases a captivating collection of Tunisian heritage, featuring ancient artifacts, fine art, and traditional costumes. The museum's exhibits offer visitors a glimpse into local history and culture, making it a must-visit destination for tourists seeking insight into Tunisia's rich past.</t>
         </is>
       </c>
     </row>
@@ -7487,9 +7430,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Eden Palm located at Chem. de l'Ancienne Oasis, Tozeur. 
-This top-rated destination is perfect for Heritage Museum lovers and offers a range of Heritage Museum to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on None. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>Eden Palm in Tozeur, Tunisia, is a heritage museum with a 4.3 rating. It is known for its palm trees and date tastings, with a focus on learning about local products and culture. The museum offers an immersive experience with chocolate making demonstrations and a variety of products to sample. It is open daily from 8 AM to 11 PM and is located at Chem. de l'Ancienne Oasis.</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7529,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out the historical site of Medina de Tozeur located at W4CQ+7G Medina de Tozeur, Ouled El Hadef, Tozeur. This top-rated destination is perfect for Site historique lovers and offers a range of categories to choose from, including Site historique and Attraction touristique. With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website at https://www.google.com/maps/place/M%C3%A9dina+de+Tozeur/data=!4m7!3m6!1s0x1257c029250295f1:0x3e460f30972b80c2!8m2!3d33.9206525!4d8.1386141!16s%2Fg%2F11c30smfj4!19sChIJ8ZUCJSnAVxIRwoArlzAPRj4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In the heart of the Tunisian desert, the Medina of Tozeur beckons visitors with its rich history and architectural wonders. This UNESCO World Heritage Site boasts a labyrinth of narrow brick alleys, lined with intricate doors and adorned with stunning desert architecture. Explore the vibrant souks, where artisans showcase their traditional crafts, and indulge in the sweet taste of local dates. The Medina of Tozeur invites you to step into a bygone era and experience the captivating charm of a bygone era.</t>
         </is>
       </c>
     </row>
@@ -7687,7 +7628,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for an interesting cultural experience, visit Mausolee d'Abou El Kacem Chebbi located at W47H+MF5. This top-rated local museum is perfect for history and culture lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on Monday and Sunday. To get there, use these GPS coordinates: 33.91717636496, 8.133063786585.</t>
+          <t>Mausolee d'Abou El Kacem Chebbi is a museum located in Tozeur, Tunisia. It is dedicated to the life and work of the Tunisian poet, Abou El Kacem Chebbi. The museum contains a collection of Chebbi's works, as well as personal belongings and other items related to his life. The Mausolee d'Abou El Kacem Chebbi is a popular tourist destination, and it offers a unique opportunity to learn about the life and work of one of Tunisia's most famous poets.</t>
         </is>
       </c>
     </row>
@@ -7782,8 +7723,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Parc Abou El Kacem Chebbi located at W489+2RC Parc Abou El Kacem Chebbi, Rte Touristique, Tozeur
-This top-rated destination is perfect for Parc commemoratif lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Parc+Abou+El+Kacem+Chebbi/data=!4m7!3m6!1s0x1257ebc645deb0d5:0x1dc177c35d5d3071!8m2!3d33.9150616!4d8.1195305!16s%2Fg%2F11s7yspnjj!19sChIJ1bDeRcbrVxIRcTBdXcN3wR0?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Parc Abou El Kacem Chebbi is a commemorative park located in Tozeur, Tunisia. It is named after the renowned Tunisian poet Abou El Kacem Chebbi. The park offers a serene and picturesque setting for visitors to relax and enjoy the natural beauty of the area. It features lush greenery, blooming flowers, and tranquil pathways that invite leisurely strolls or peaceful contemplation. The park's prime location allows visitors to easily explore the surrounding areas of Tozeur, making it an ideal destination for both relaxation and cultural discovery.</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7822,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Statue d'Ibn Chabbat located at Statue d'Ibn Chabbat, Ave Farhat Hached, Tozeur. This top-rated destination is perfect for Sculpture lovers and offers a range of Sculpture to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.92100958622, 8.117383840332. For more details, visit their website at https://www.google.com/maps/place/Statue+d%27Ibn+Chabbat/data=!4m7!3m6!1s0x1257ebe5f3e4b36f:0x876b097a41c804b4!8m2!3d33.9216321!4d8.1310593!16s%2Fg%2F11mvp5s09p!19sChIJb7Pk8-XrVxIRtATIQXoJa4c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Statue d'Ibn Chabbat is a well-known sculpture located in Avenue Farhat Hached, Tozeur. Its coordinates are (33.92100958622, 8.117383840332). The place is open 24 hours a day, offering a wonderful experience for visitors.</t>
         </is>
       </c>
     </row>
@@ -7993,9 +7933,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cultural experience, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated museum is perfect for history and culture enthusiasts and offers a range of exhibits to choose from. 
-With a rating of 4.2, it's a must-visit spot for those interested in the history and culture of Tunisia. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musée Dar Cherait is a museum located in Tozeur, Tunisia, at the coordinates (33.9214463, 8.1296387). The museum features exhibits on Tunisian history, culture, and traditional costumes. Its work hours are from 8:00 am to 10:00 pm, and it receives generally positive reviews from visitors, with an average rating of 4.2 out of 5. The museum offers insights into Tunisian heritage and traditions.</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8044,9 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on none. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+Dar+Chera%C3%AFt/data=!4m7!3m6!1s0x1257c0294234b9b7:0xe178150573ada919!8m2!3d33.9131625!4d8.1206094!16s%2Fg%2F1223q96c!19sChIJt7k0QinAVxIRGamtcwUVeOE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 76 452 100.</t>
+          <t>Nestled in Tozeur, the Musee Dar Cherait is a must-visit cultural destination. Housed within a renovated mansion, this museum showcases fascinating exhibits of ancient artifacts, artwork, and traditional Tunisian costumes. Immerse yourself in the history and culture of the region as you wander through its halls, experiencing the evolution of Tunisian society from the perspective of its rich past.
+Located at the coordinates (33.9214463, 8.1296387), the museum is easily accessible and welcomes visitors with open arms. Its convenient operating hours, from 8:00 AM to 10:00 PM, provide ample time to explore its wonders.
+The Musee Dar Cherait is not just a museum; it's an experience that brings the past to life. Immerse yourself in the charm of Tozeur as you delve into the captivating world of Tunisian history and culture.</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8157,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>If you're in tozeur, searching for captivating cultural experiences, head to Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique. This highly-rated spot, with a rating of 4.2, is a perfect fit for art and history enthusiasts and offers a enthralling glimpse into Tunisian culture and heritage. Immerse yourself in the museum's collection of traditional costumes, intriguing artworks, and ancient artifacts, gaining valuable insights into the region's rich past. Open every day from 08:00-22:00, the museum provides ample time to explore its treasures. For more information, visit their website at https://m.facebook.com/darcheraittozeur/ or dial them at 76 452 100.</t>
+          <t>The Musee Dar Cherait is located in Tozeur. It offers a glimpse into the history and culture of Tunisia. The museum features exhibits on traditional Tunisian costumes, art, and objects.</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8260,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in Tozeur seeking an intriguing escapade, explore PARC CHAK WAK, situated at W46W+JJ5 PARC CHAK WAK. Acclaimed for its historical museum and engaging exhibits, it's an ideal destination for all museum enthusiasts. With an impressive 4.2 rating, it's a must-visit spot. Its operating hours are from 08:00 to 00:00 every day. To reach this fascinating destination, use these GPS coordinates: 33.9111365, 8.1453131. For further information, contact them at 76 460 400.</t>
+          <t>PARC CHAK WAK is a museum and tourist attraction located in Tozeur, Tunisia. It offers a unique experience, combining a variety of exhibits related to the history of humanity, evolution, and natural wonders. The museum boasts a collection of dinosaur fossils, historical artifacts, and religious relics, providing a glimpse into the region's rich cultural heritage. Additionally, the park features a stunning oasis and a palmeraie, offering visitors a chance to relax and enjoy the beauty of the surrounding nature.</t>
         </is>
       </c>
     </row>
@@ -8427,9 +8367,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a cultural experience, check out Eden Palm located at Chem. de l'Ancienne Oasis. 
-This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.eden-palm.com/ or call them at 58 085 059.</t>
+          <t>Eden Palm, situated in Tozeur at coordinates (33.9214463, 8.1296387), serves as a cultural heritage museum. Its exceptional offerings include a captivating exploration of date palm cultivation and the delectable flavors of dates, blended harmoniously with the rich aromas of chocolate. With its convenient operating hours from 8:00 AM to 11:00 PM daily, Eden Palm invites visitors to immerse themselves in a unique and memorable experience.</t>
         </is>
       </c>
     </row>
@@ -8540,9 +8478,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for museum lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Monday-Sunday 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>The Musée Dar Cherait is a restored mansion located at latitude 33.9214463 and longitude 8.1296387. The city is Tozeur, Tunisia. It houses a collection of ancient Tunisian artifacts, artwork, and traditional costumes. Visitors can explore the museum's exhibits and learn about the history and culture of Tunisia. The museum is open daily from 8:00 AM to 22:00 PM and has received an average rating of 4.2 stars from 442 reviews.</t>
         </is>
       </c>
     </row>
@@ -8653,9 +8589,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Musee lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>Musee Dar Cherait is a museum located in Tozeur, Tunisia. It is housed in a restored mansion and features a collection of historical artifacts, artworks, and traditional Tunisian costumes. The museum is open daily from 8:00 AM to 10:00 PM and offers guided tours in several languages. The museum is located at the following coordinates: 33.9214463, 8.1296387. It is a popular tourist destination and is often visited by families with children.</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8700,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Musee Dar Cherait located at W47C+769 Musee Dar Cherait, Rte Touristique, Tozeur. This top-rated destination is perfect for Musee lovers and offers a range of Musee,Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/darcheraittozeur/ or call them at 76 452 100.</t>
+          <t>In the heart of Tozeur, discover the Musee Dar Cherait: a beautifully renovated mansion where Tunisian heritage comes alive. This museum showcases ancient artifacts, captivating artwork, and traditional costumes, immersing you in the rich cultural tapestry of the region. With its convenient location and extended hours (08:00-22:00), the Musee Dar Cherait offers a captivating experience for the whole family, where history, culture, and tradition intertwine.</t>
         </is>
       </c>
     </row>
@@ -8873,7 +8807,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at Route de la Berka, Tozeur. This top-rated destination is perfect for Bar Lounge lovers and offers a range of categories to choose from, including Bar Lounge, Parc, Centre de loisirs, Salon de the. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>The Sahara Lounge, located in the city of Tozeur (Tunisia), is a bar lounge that offers a relaxing atmosphere amidst nature. With its privileged location near a park, the lounge boasts stunning views of palm trees and offers activities for children, making it a great destination for families. The lounge is especially known for its tyrolienne, which provides an exhilarating experience. Despite its prime location and offerings, the Sahara Lounge maintains affordable prices, making it accessible to visitors with different budgets.</t>
         </is>
       </c>
     </row>
@@ -8980,9 +8914,9 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from, including Bar lounge, Parc, Centre de loisirs, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>The Sahara Lounge is a renowned place in Tozeur, Tunisia located at (33.9214463, 8.1296387). It offers a unique blend of nature and entertainment, featuring a park-like setting with lush palm trees.
+The lounge offers a tranquil ambiance with a 4.1-star rating and 133 reviews. It's an ideal destination for families, with amenities like a playground and a zip line for kids. The lounge also hosts events and provides catering services.
+The Sahara Lounge is easily accessible via Route de la Berka. With its convenient hours (9 AM to 10 PM) and reasonable pricing, it's a popular choice for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -9089,7 +9023,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. This top-rated destination is perfect for bar lounge lovers and offers a range of categories to choose from, including bar lounge, park, recreation center, and tea room. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on . To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at http://www.sahara-lounge.com/ or call them at 50 287 900.</t>
+          <t>Sahara Lounge, located in Tozeur, Tunisia, is a bar lounge offering a unique experience amidst nature. Nestled on Route de la Berka (W47Q+WV9), it boasts stunning views of the surrounding landscape and features a lush park and leisure center. With a rating of 4.1 and over 133 reviews, Sahara Lounge offers a tranquil haven for relaxation and entertainment, attracting families with its kid-friendly amenities and featuring a range of activities such as tyrolienne (zip-lining) and more.</t>
         </is>
       </c>
     </row>
@@ -9196,9 +9130,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Sahara Lounge located at W47Q+WV9 Sahara Lounge, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Bar lounge lovers and offers a range of categories to choose from, including Bar lounge, Parc, Centre de loisirs, Salon de the. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387.</t>
+          <t>The Sahara Lounge is a bar lounge located in Tozeur, Tunisia. It is a popular spot for locals and tourists alike, offering a relaxed atmosphere with stunning views of the surrounding desert landscape. The lounge features a variety of amenities, including a swimming pool, a restaurant, and a bar. It also offers a range of activities, such as camel rides, quad biking, and hiking. The Sahara Lounge is a great place to relax and unwind after a long day of exploring the Sahara Desert.</t>
         </is>
       </c>
     </row>
@@ -9301,7 +9233,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great meal, check out Restaurant Le Soleil located at Av. Abou el Kacem Chebbi. This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can enjoy a delicious meal whenever you like. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website or call them at 22 193 881.</t>
+          <t>Restaurant Le Soleil is located in Tozeur, Tunisia at (33.9191699, 8.1292337). It's a traditional Tunisian restaurant with 4.2 stars and 282 reviews. This restaurant is open 24 hours a day and offers couscous, dromadaire, chakchouka, and other traditional Tunisian dishes.</t>
         </is>
       </c>
     </row>
@@ -9404,7 +9336,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great meal at a local spot, head to Restaurant De La Republique Tozeur at Rue Hedi Jahallah, Tozeur. This restaurant specializes in Tunisian cuisine and has earned a solid 4.1-star rating. Open 24 hours a day, you can get some of their top-rated dishes like couscous, dromadaire, and poulet whenever you need. Call them at 23 821 901 for more details.</t>
+          <t>Restaurant De La Republique Tozeur is a Tunisian restaurant located in Tozeur, Tunisia. It has a rating of 4.1, over 153 reviews, and is open 24/7. The restaurant offers a variety of Tunisian dishes, including couscous, salads, and legumes. It is also known for its dromadaire and poulet dishes. The restaurant is located at 2200, W4CP+C5 Restaurant De La Republique Tozeur, Rue Hedi Jahallah, Tozeur.</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9439,13 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Berbere  located at W4CQ+88Q Cafe Berbere  , Ouled El Hadef, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:30-00:00, but closed on . To get there, use these GPS coordinates: 33.9217422, 8.1392507. For more details, visit their website or call them at 50 719 277.</t>
+          <t>Café Berbère is a café located in Tozeur, Tunisia, with coordinates (33.9217422, 8.1392507). It has received 146 reviews and has a 5.0 rating. The café offers a variety of services, including:
+- A wide selection of drinks, including juices, teas, and coffee
+- A variety of snacks and meals
+- A chicha (water pipe) service
+- A terrace with views of the city
+- Live music on weekends
+Café Berbère is a popular spot for locals and tourists alike, and is known for its friendly atmosphere and delicious food and drinks.</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9544,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, check out Restaurant les Arcades located at Av. Habib Bourguiba. This popular destination offers a range of categories including Restaurant and is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. For more details, visit their website or call them at 76 452 902.</t>
+          <t>Restaurant Les Arcades is a highly rated restaurant with 128 reviews and a 4.3-star rating. It is located in Tozeur, Tunisia, on Av. Habib Bourguiba (coordinates: 33.919854578099, 8.136698387935). The restaurant is known for its couscous, agneau (lamb), and vegetarian options. Reviewers also praise the succulent dishes, excellent service, and affordable prices.</t>
         </is>
       </c>
     </row>
@@ -9709,7 +9647,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated restaurant, check out Scoop Cafe-Resto located at Av. Abou el Kacem Chebbi, Tozeur 2210. This popular spot offers a range of cuisines, perfect for all taste buds. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-00:00, but closed on . To get there, use these GPS coordinates: 33.9262616, 8.1315781. For more details, visit their website at  or call them at 27 720 721.</t>
+          <t>Located at Av. Abou el Kacem Chebbi in Tozeur, Scoop Cafe-Resto is a popular spot with 111 Google reviews and a 4.3-star rating. Open from 7 am to midnight, this restaurant serves delicious food and drinks, including a variety of glaces and tayaras. With a convenient location and good ratings, Scoop Cafe-Resto is worth checking out for a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -9812,7 +9750,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great place to eat, check out Restaurant Tisouros located at 88 Avenue Abou Al Kacem Chebbi. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 11:00-23:00, but closed on Tuesdays and Wednesdays. To get there, use these GPS coordinates: 33.9191699, 8.1292337. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Tisouros/data=!4m7!3m6!1s0x1257ebe7ad1ddc89:0xf765598b30134855!8m2!3d33.9173497!4d8.1333713!16s%2Fg%2F11vj3n6y2q!19sChIJidwdrefrVxIRVUgTMItZZfc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 56 999 738.</t>
+          <t>Restaurant Tisouros, located in Tozeur, is a highly rated (4.7/5) restaurant known for its cooperative experience and affordable prices. Open from 11:00 AM to 11:00 PM daily, it is closed on Tuesdays and Wednesdays. With its convenient location at 88 Avenue Abou Al kacem Chebbi, Tozeur 2200 and contact information of 56 999 738, Restaurant Tisouros offers a memorable dining experience for visitors seeking local flavors.</t>
         </is>
       </c>
     </row>
@@ -9915,11 +9853,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a splendid dining experience, head to Le Minaret Ferkous located at: W4CP+H3M Rue Mohamed Ali El Ajimi. 
-This top-rated restaurant, with a rating of 4.8, is a must-visit spot for Restaurant and Cafe enthusiasts. 
-It's open 24 hours a day, so you can enjoy a delightful meal or a relaxing cafe experience anytime you crave it. 
-For more information, visit their website at https://www.google.com/maps/place/Le+Minaret+Ferkous/data=!4m7!3m6!1s0x1257eb9c4e0b1c51:0x694bb8b4b9ec92ea!8m2!3d33.9214663!4d8.1351477!16s%2Fg%2F11kqzvg8p8!19sChIJURwLTpzrVxIR6pLsubS4S2k?authuser=0&amp;hl=fr&amp;rclk=1
- or call them at 22 716 333 for reservations or inquiries.</t>
+          <t>Le Minaret Ferkous is a 4.8-star rated restaurant located in Tozeur, Tunisia. It is open 24 hours and has received 69 reviews. The restaurant offers a cafe and a restaurant and is known for its experience, setting, cafe, continuation, and music. Le Minaret Ferkous is located at W4CP+H3M Le Minaret Ferkous, Rue Mohamed Ali El Ajimi, Tozeur and can be contacted at 22 716 333.</t>
         </is>
       </c>
     </row>
@@ -10022,7 +9956,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated restaurant, check out La Grotte Restaurant located at Rue Ali El Warteni. This popular spot is perfect for Restaurant lovers and offers a range of cuisines to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/La+Grotte+Restaurant/data=!4m7!3m6!1s0x1257eba753a713cf:0x42cfa233718377f7!8m2!3d33.9210873!4d8.1280731!16s%2Fg%2F11h1124w6h!19sChIJzxOnU6frVxIR93eDcTOiz0I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 191 091.</t>
+          <t>La Grotte Restaurant offers a delightful dining experience in the heart of Tozeur, Tunisia. With a 4.2-star rating and 46 glowing reviews, it is renowned for its cleanliness, delicious chicken dishes, and reasonable prices. Located conveniently on Rue Ali El Warteni, La Grotte is open from 6 AM to midnight, welcoming guests to savor delectable meals throughout the day.</t>
         </is>
       </c>
     </row>
@@ -10129,9 +10063,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out M7ar7er Fast Food located at W4JH+8GH M7ar7er Fast Food, Avenue d'Iraq. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.930657993656, 8.128086372939. For more details, visit their website at https://www.facebook.com/M7ar7erfastfood/ or call them at 24 015 014.</t>
+          <t>M7ar7er Fast Food is a fast food restaurant located in Avenue d'Iraq, Tozeur. It offers a variety of fast food options, including burgers, fries, and chicken. The restaurant is open 24 hours a day and has a 4.2 rating on Google Maps. If you're looking for a quick and easy meal, M7ar7er Fast Food is a great option.</t>
         </is>
       </c>
     </row>
@@ -10234,9 +10166,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a delicious Italian meal, check out Restaurant Pizzeria Azzoura located at W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur. 
-This top-rated destination is perfect for Restaurant italien lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website or call them at 52 346 500.</t>
+          <t>Restaurant Pizzeria Azzoura is an Italian restaurant situated around the coordinates (33.9214463, 8.1296387) in Tozeur. It offers a variety of Italian dishes and has a rating of 4.1 stars based on 32 reviews. The restaurant is open from 10:00 AM to 00:00 AM during the weekdays and is closed on Sundays. Contact information includes its phone number (52 346 500) and address (W47C+6CM Restaurant Pizzeria Azzoura, Rte Touristique, Tozeur). The restaurant's featured image can be found at the URL https://lh5.googleusercontent.com/p/AF1QipP37W4zcRZQXtjY354zcIlpEtSDYizZBA1LL6AW=w408-h491-k-no.</t>
         </is>
       </c>
     </row>
@@ -10339,9 +10269,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Resto Cafe El Berka located at W48Q+HH9 Resto Cafe El Berka, Route de la Berka, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on No Data Available. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://www.google.com/maps/place/Resto+Caf%C3%A9+El+Berka/data=!4m7!3m6!1s0x1257c15765a2fc13:0x5a057b5b991c1aee!8m2!3d33.916396!4d8.1389735!16s%2Fg%2F11vjggt1rf!19sChIJE_yiZVfBVxIR7hocmVt7BVo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 297 297.</t>
+          <t>Resto Cafe El Berka is a well-rated restaurant located in Tozeur, Tunisia. It offers a variety of dishes and has a rating of 4.9 out of 5 stars. The restaurant is open from 11:00 AM to 10:00 PM and is closed on Sundays. It's located at the following coordinates: (33.9214463, 8.1296387).</t>
         </is>
       </c>
     </row>
@@ -10440,7 +10368,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated restaurant, head to Restaurant La Medina on Ave Farhat Hached. It's a popular spot for Restaurant lovers and offers a great dining experience with a rating of 4.8. Call them at 93 330 491 or visit their website for more details.</t>
+          <t>Restaurant La Medina is a popular restaurant located in Tozeur. It offers a variety of dishes at reasonable prices. The restaurant is highly rated by its customers, with an average rating of 4.8 out of 5 stars. It is situated at the following coordinates: 33.9230706, 8.1352467.</t>
         </is>
       </c>
     </row>
@@ -10539,9 +10467,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant Princesse located at W4CP+Q2M Restaurant Princesse, Av. Habib Bourguiba, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, call them at 22 404 506.</t>
+          <t>Restaurant Princesse is a highly-rated restaurant located at the heart of Tozeur, Tunisia, at (33.919854578099, 8.136698387935). It offers a wide range of culinary delights, with a focus on sandwiches and chawarma. The restaurant has received 19 reviews, with an impressive average rating of 4.7, highlighting the deliciousness of its dishes and the warm hospitality it provides.</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10574,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great cafe, check out Bonzai Lounge Coffee located at W4C9+CV5 P3, Tozeur. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.9214463, 8.1296387. For more details, visit their website at https://m.facebook.com/Coffee-Bonzai-236924553917206/ or call them at 52 230 007.</t>
+          <t>Bonzai Lounge Coffee is a 24/7 cafe located in the city of Tozeur, Tunisia. It has received a 4.7 rating based on 13 reviews on Google. Unfortunately, there is no further information about the cafe, such as its menu or services.</t>
         </is>
       </c>
     </row>
@@ -10751,9 +10677,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Restaurant Castilia located at Avenue Avicenne, Tozeur. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Bar to choose from.
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 33.926052462407, 8.137673503962. For more details, visit their website.</t>
+          <t>Restaurant Castilia is a 4.7-rated restaurant located in Tozeur, Tunisia, at 33.926052462407, 8.137673503962. It offers a variety of dining options, from traditional Tunisian dishes to international cuisine, and is open from 12:00 pm to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -10852,10 +10776,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a great bite, check out Number one located at W49H+VJ6 Rue 2 Mars 1934. 
-This top-rated fast food joint is a must-visit spot with a rating of 5.0.
-To get there, use these GPS coordinates: 33.921002262414, 8.129355773385.
-For more details, call them at 52 893 947.</t>
+          <t>**Number One** is a fast-food restaurant located at W49H+VJ6, Rue 2 Mars 1934 in Tozeur, Tunisia. It is highly rated with a 5.0 rating based on 8 reviews. The restaurant offers a variety of fast-food options and is known for its friendly service and convenient location.</t>
         </is>
       </c>
     </row>
@@ -10954,7 +10875,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Palmera located at W48J+MQ7 Cafe Palmera, Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Palmera/data=!4m7!3m6!1s0x1257ea9d3d0edf39:0x7c51cdf1d5186c40!8m2!3d33.9166614!4d8.131922!16s%2Fg%2F11gfn736f5!19sChIJOd8OPZ3qVxIRQGwY1fHNUXw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Palmera, located in Tozeur (coordinates: 33.91732548103, 8.126746090487), is a highly-rated cafe (4.7 stars based on 7 reviews). It is open from 06:00-00:00 every day.</t>
         </is>
       </c>
     </row>
@@ -11057,9 +10978,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Pronto Fast Food located at Av. Habib Bourguiba. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00 but closed on . To get there, use these GPS coordinates: 33.919854578099, 8.136698387935. For more details, visit their website or call them at 96 710 733.</t>
+          <t>Pronto Fast Food is a fast-food restaurant located in Tozeur, Tunisia (coordinates: 33.919854578099, 8.136698387935). With a 5.0 rating based on 6 reviews, it offers a range of fast-food options and is open from 9:00 AM to 9:00 PM.</t>
         </is>
       </c>
     </row>
@@ -11166,9 +11085,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe La Rosa located at W48M+R37 Cafe La Rosa, Av. Abou el Kacem Chebbi, Tozeur. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 30.7550394, -92.0073482. For more details, visit their website at https://m.facebook.com/Cafe-La-Rosa-tozeur-660194007516712/%3Fref%3Dpage_internal%26mt_nav%3D0 or call them at 24 804 483.</t>
+          <t>Located in Tozeur Tunisia, at the coordinates (30.7550394, -92.0073482), Cafe La Rosa is open 24 hours a day and its main category is Cafe.</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11188,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Cafe Mallorca located at Avenue 4 Aout 1880, Tozeur. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.91732548103, 8.126746090487.</t>
+          <t>Located in Avenue 4 Aout 1880, Tozeur, Cafe Mallorca is a highly-rated, 24-hour cafe with a 5.0 rating. The cafe specializes in coffee and other cafe fare, and is owned by Cafe Mallorca (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -11370,7 +11287,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a quick bite to eat, head to Pizzeria Krabaa, located on 192 Av. Abou el Kacem Chebbi. This highly-rated spot serves up delicious pizzas and other fast food options, perfect for when you're on the go. With a 4.3 rating, it's a must-visit for foodies in the area. To get there, use these GPS coordinates: 33.91717636496, 8.133063786585. For more details, call them at 52 795 212.</t>
+          <t>Pizzeria krabaa is a fast food restaurant located in Tozeur, Tunisia. It offers a variety of pizzas, as well as other fast food items. The restaurant is located at 192 Av. Abou el Kacem Chebbi, Tozeur, Tunisia. The coordinates of the restaurant are 33.91717636496, 8.133063786585.</t>
         </is>
       </c>
     </row>
@@ -11465,7 +11382,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a quick bite, head to Tito's Tozeur located at W4CH+GMF Tito's Tozeur, Tozeur. This top-rated fast food joint is a must-visit spot, with a rating of 4.0. Be sure to visit their website at  for more details.</t>
+          <t>Tito's Tozeur is a fast food restaurant located in Tozeur, Tunisia, offering a variety of delicious options. It is conveniently located at coordinates (33.9214463, 8.1296387), making it easy to find.</t>
         </is>
       </c>
     </row>
@@ -11556,9 +11473,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something good to eat, check out Restaurant Beb Elhawa located at W4CM+R78 Restaurant Beb Elhawa, Rue Ibn Toufail. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9221370448, 8.133922139245.</t>
+          <t>Restaurant Beb Elhawa is a fast food restaurant in Tozeur, Tunisia, that offers a variety of food options. It is located at (33.9221370448, 8.133922139245), making it easily accessible to locals and tourists alike. The restaurant's focus on fast food makes it a convenient choice for those on the go.</t>
         </is>
       </c>
     </row>
@@ -11657,7 +11572,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated creperie to satisfy your cravings, Yam Yam Tozeur located at Rue Mohamed Belkhouja is the perfect spot. With a remarkable rating of 5.0, this beloved destination offers a delightful range of crepes to choose from. Open during its regular operating hours, Yam Yam Tozeur proudly presents its delicious offerings. To get there, simply use the provided GPS coordinates: 33.920437098261, 8.128584735218. For more information and updates, be sure to visit their website or give them a call at 53 482 182.</t>
+          <t>In the bustling city of Tozeur, nestled at the coordinates (33.920437098261, 8.128584735218), lies the highly-rated Yam Yam Tozeur. This establishment is renowned for its delectable crepes, earning it a perfect 5.0 rating based on 2 reviews. Although its website and description remain unavailable, Yam Yam Tozeur's friendly owner is eager to welcome you.</t>
         </is>
       </c>
     </row>
@@ -11756,7 +11671,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated Cafe, check out The Wolf located at W489+7PQ The Wolf, Rte Touristique. This local favorite offers a cozy atmosphere and a wide selection of beverages and snacks. With a 5.0 rating, it's a must-visit spot. It's open during these hours: 05:30-00:00. For more details, visit their website at https://lh5.googleusercontent.com/p/AF1QipPZBHCivhYMIVjYO0xWO7TBxLnqOJqCHcO_QWke=w408-h306-k-no or call them at [phone number].</t>
+          <t>The Wolf is a cafe located in Tozeur, Tunisia at (33.9214463, 8.1296387). It offers a cozy ambiance to relax and enjoy its variety of drinks and snacks. The cafe opens from 5:30 AM to midnight.</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11766,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for a top-rated dining experience, visit Chez Giorgio at W48J+MQ8. This restaurant is highly recommended for food enthusiasts and offers a cozy ambiance. With a rating of 5.0, it's a must-try spot. Visit their website for more details.</t>
+          <t>Chez Giorgio, located in Tozeur (33.9214463, 8.1296387), is a reputable restaurant offering a 5-star dining experience. Its featured image showcases the restaurant's inviting ambiance. Check out their website or call for more information on reservations, menu, and other details.</t>
         </is>
       </c>
     </row>
@@ -11950,7 +11865,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for a top-rated Restaurant, check out Harissa &amp; Lablebi located at W4CJ+66R Harissa &amp; Lablebi, Av. Mohamed Ben Alaya, Tozeur. With a rating of 5.0, it's a must-visit spot and offers a range of Restaurant categories to choose from. It's open during these hours: 05:00-13:00, but closed on To get there, use these GPS coordinates: 33.982462, 35.6551931. For more details, visit their website at .</t>
+          <t>Harissa &amp; Lablebi is a restaurant located in Tozeur, Tunisia, with coordinates (33.982462, 35.6551931). It is open from 5 am to 1 pm and offers a 5-star dining experience.</t>
         </is>
       </c>
     </row>
@@ -12049,9 +11964,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for convenient transportation, head to Station Louage de Tozeur located at Rue Sadrabaal. 
-This top-rated destination is perfect for transportation enthusiasts and offers reliable services to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.9230133, 8.13044. For more details, call them at 98 283 332.</t>
+          <t>Station Louage de Tozeur is a transportation hub in Tozeur, Tunisia located at (33.9230133, 8.13044). It is open 24 hours a day, 7 days a week, and offers a variety of services, including bus and taxi service to and from the city center.</t>
         </is>
       </c>
     </row>
@@ -12146,7 +12059,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>If you're in Tozeur and looking for reliable transportation services, Gare Routiere de Tozeur is an excellent choice. Conveniently located at W4CJ+P8Q Gare Routiere de Tozeur, this highly-rated transportation hub provides a seamless experience for travelers. With a rating of 3.9, it's a must-visit spot for those seeking efficient and comfortable transportation solutions. For more details, visit their website or call them for assistance.</t>
+          <t>The Gare Routiere de Tozeur, located at W4CJ+P8Q Gare Routiere de Tozeur, Tozeur, is a transportation service hub offering convenient connections to nearby destinations. Its central location in Tozeur makes it easily accessible from various points in the city, and it provides a range of transportation options to meet travelers' needs. With its convenient location and reliable services, the Gare Routiere de Tozeur is a valuable resource for both locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12154,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>If you're in Tozeur, consider visiting Gare de train. This top-rated destination is perfect for Gare lovers. With a rating of 3.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.7404813, 10.2281091.</t>
+          <t>Gare de train is a transit hub placed at (36.7404813, 10.2281091) in Tozeur. It receives a rating of 3.4 based on 18 reviews.</t>
         </is>
       </c>
     </row>
@@ -12340,7 +12253,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>If you're in tozeur and looking for something fun to do, check out Station Louage de Tozeur located at Rue Sadrabaal, Tozeur. This top-rated destination is perfect for Transports en commun lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.9230133, 8.13044. For more details, call them at 98 283 332.</t>
+          <t>The Station Louage de Tozeur is a transportation hub situated in Tozeur, Tunisia. It offers convenient and affordable bus services, connecting travelers to various destinations within the region. Located at the coordinates (33.9230133, 8.13044), the station is easily accessible from different parts of Tozeur. With a rating of 4.4 based on customer reviews, the Station Louage de Tozeur has received positive feedback for its reliable and comfortable services.</t>
         </is>
       </c>
     </row>
